--- a/Test_Data/Credkart_Test_Data.xlsx
+++ b/Test_Data/Credkart_Test_Data.xlsx
@@ -412,7 +412,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -492,7 +492,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>Credencetest@test.com</t>
+          <t>Credencetest@test.com11</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
@@ -507,12 +507,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>login_pass</t>
+          <t>login_fail</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
